--- a/Balance-of-Dorm.xlsx
+++ b/Balance-of-Dorm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2160" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五幺五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交社费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交社费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慷慨地捐献垃圾袋找零的一毛钱，好人一生平安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,13 +150,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="11" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="11" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -68,8 +185,26 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G10" totalsRowShown="0">
+  <autoFilter ref="A1:G10"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="人物"/>
+    <tableColumn id="3" name="收支" dataDxfId="0"/>
+    <tableColumn id="4" name="项目"/>
+    <tableColumn id="8" name="余额" dataDxfId="3">
+      <calculatedColumnFormula>E1+C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="日期" dataDxfId="2"/>
+    <tableColumn id="5" name="备注" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +249,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +284,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +466,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3+E2</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E9" si="0">E3+C4</f>
+        <v>40</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A6" si="1">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <f>-19.9</f>
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>60.1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-7.2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>52.9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>52.91</v>
+      </c>
+      <c r="F9" s="2">
+        <v>42471</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2AF45717-9980-4E1C-9610-400658638550}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2AF45717-9980-4E1C-9610-400658638550}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Balance-of-Dorm.xlsx
+++ b/Balance-of-Dorm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="5436" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,7 +101,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>慷慨地捐献垃圾袋找零的一毛钱，好人一生平安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慷慨地捐献的一毛钱，好人一生平安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,9 +181,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="11" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     </dxf>
     <dxf>
@@ -171,6 +188,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="11" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,18 +206,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G10" totalsRowShown="0">
-  <autoFilter ref="A1:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="人物"/>
-    <tableColumn id="3" name="收支" dataDxfId="0"/>
+    <tableColumn id="3" name="收支" dataDxfId="3"/>
     <tableColumn id="4" name="项目"/>
-    <tableColumn id="8" name="余额" dataDxfId="3">
+    <tableColumn id="8" name="余额" dataDxfId="2">
       <calculatedColumnFormula>E1+C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="日期" dataDxfId="2"/>
-    <tableColumn id="5" name="备注" dataDxfId="1"/>
+    <tableColumn id="9" name="日期" dataDxfId="1"/>
+    <tableColumn id="5" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,20 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.88671875" style="3"/>
     <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,7 +580,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E9" si="0">E3+C4</f>
+        <f t="shared" ref="E4:E10" si="0">E3+C4</f>
         <v>40</v>
       </c>
       <c r="F4" s="2">
@@ -663,24 +683,113 @@
         <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>52.91</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2">
         <v>42471</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
+      <c r="C10" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E10+C11</f>
+        <v>33.1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>42505</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-7.2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <f>E11+C12</f>
+        <v>25.900000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E12+C13</f>
+        <v>26.000000000000004</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42508</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
